--- a/xlsxs/UnitConfig.xlsx
+++ b/xlsxs/UnitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775" tabRatio="500"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="UnitConfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +50,12 @@
     <t>rotationSpeed</t>
   </si>
   <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>buffs</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -57,6 +63,9 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>int[]</t>
   </si>
   <si>
     <t>1#1#1</t>
@@ -1219,13 +1228,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6583333333333" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.6583333333333" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="10.6833333333333" style="1"/>
     <col min="2" max="5" width="12.8916666666667" style="1" customWidth="1"/>
@@ -1237,7 +1246,7 @@
     <col min="11" max="1027" width="10.6833333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,28 +1268,40 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="12.65" customHeight="1" spans="1:7">
+    <row r="2" ht="12.65" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1288,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1305,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1317,12 +1338,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1331,6 +1352,9 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1339,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>

--- a/xlsxs/UnitConfig.xlsx
+++ b/xlsxs/UnitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="500"/>
+    <workbookView windowWidth="27945" windowHeight="11775" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="UnitConfig" sheetId="1" r:id="rId1"/>
@@ -1231,7 +1231,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6583333333333" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1355,6 +1355,9 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <v>1</v>
       </c>
     </row>

--- a/xlsxs/UnitConfig.xlsx
+++ b/xlsxs/UnitConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,33 @@
     <t>buffs</t>
   </si>
   <si>
+    <t>isAddCollider</t>
+  </si>
+  <si>
+    <t>isEnableColliderDetection</t>
+  </si>
+  <si>
+    <t>isCollisionDestory</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>colliderLayer</t>
+  </si>
+  <si>
+    <t>colliderShape</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -68,7 +95,19 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>ColliderShape</t>
+  </si>
+  <si>
+    <t>float2</t>
+  </si>
+  <si>
     <t>1#1#1</t>
+  </si>
+  <si>
+    <t>Circle</t>
   </si>
 </sst>
 </file>
@@ -81,10 +120,15 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Liberation Sans"/>
       <charset val="134"/>
     </font>
     <font>
@@ -553,21 +597,18 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,123 +617,129 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1228,10 +1275,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K7" sqref="K7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6583333333333" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1241,12 +1288,10 @@
     <col min="6" max="6" width="13.7" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.7166666666667" style="1"/>
     <col min="8" max="8" width="10.7" style="1"/>
-    <col min="9" max="9" width="10.6833333333333" style="1"/>
-    <col min="10" max="10" width="25" style="1" customWidth="1"/>
-    <col min="11" max="1027" width="10.6833333333333" style="1"/>
+    <col min="9" max="1027" width="10.6833333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" ht="25.5" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,42 +1319,96 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" ht="12.65" customHeight="1" spans="1:9">
+    <row r="2" ht="12.65" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1319,6 +1418,27 @@
       </c>
       <c r="G4" s="1">
         <v>1</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1326,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1338,12 +1458,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1360,13 +1480,34 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
+      <c r="J6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -1376,6 +1517,27 @@
       </c>
       <c r="G7" s="1">
         <v>1</v>
+      </c>
+      <c r="J7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/xlsxs/UnitConfig.xlsx
+++ b/xlsxs/UnitConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -38,7 +38,7 @@
     <t>scale</t>
   </si>
   <si>
-    <t>rotation</t>
+    <t>angle</t>
   </si>
   <si>
     <t>displayId</t>
@@ -86,10 +86,10 @@
     <t>int</t>
   </si>
   <si>
-    <t>float3</t>
-  </si>
-  <si>
-    <t>float</t>
+    <t>TSVector</t>
+  </si>
+  <si>
+    <t>FP</t>
   </si>
   <si>
     <t>int[]</t>
@@ -101,10 +101,7 @@
     <t>ColliderShape</t>
   </si>
   <si>
-    <t>float2</t>
-  </si>
-  <si>
-    <t>1#1#1</t>
+    <t>TSVector2</t>
   </si>
   <si>
     <t>Circle</t>
@@ -1278,7 +1275,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:L7"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6583333333333" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1347,7 +1344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="12.65" customHeight="1" spans="1:18">
+    <row r="2" ht="19" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1355,10 +1352,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -1407,8 +1404,8 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
+      <c r="C4" s="1">
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1435,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="1">
         <v>0.5</v>
@@ -1445,8 +1442,8 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
+      <c r="C5" s="1">
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1462,8 +1459,8 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
+      <c r="C6" s="1">
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1496,7 +1493,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="1">
         <v>0.5</v>
@@ -1506,8 +1503,8 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
+      <c r="C7" s="1">
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -1534,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="1">
         <v>0.5</v>

--- a/xlsxs/UnitConfig.xlsx
+++ b/xlsxs/UnitConfig.xlsx
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6583333333333" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1416,6 +1416,9 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
       <c r="J4" s="1" t="b">
         <v>1</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>25</v>

--- a/xlsxs/UnitConfig.xlsx
+++ b/xlsxs/UnitConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>TSVector2</t>
+  </si>
+  <si>
+    <t>2#3</t>
   </si>
   <si>
     <t>Circle</t>
@@ -1275,7 +1278,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6583333333333" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1416,8 +1419,8 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1">
-        <v>2</v>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="b">
         <v>1</v>
@@ -1435,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="1">
         <v>0.5</v>
@@ -1496,7 +1499,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="1">
         <v>0.5</v>
@@ -1534,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="1">
         <v>0.5</v>

--- a/xlsxs/UnitConfig.xlsx
+++ b/xlsxs/UnitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775" tabRatio="500"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="UnitConfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>2#3</t>
+  </si>
+  <si>
+    <t>2#3#4</t>
   </si>
   <si>
     <t>Circle</t>
@@ -1278,7 +1281,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6583333333333" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1422,6 +1425,9 @@
       <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J4" s="1" t="b">
         <v>1</v>
       </c>
@@ -1438,13 +1444,13 @@
         <v>4</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1459,6 +1465,9 @@
       </c>
       <c r="G5" s="1">
         <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1481,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="b">
         <v>1</v>
@@ -1499,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="1">
         <v>0.5</v>
@@ -1521,6 +1530,9 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
       <c r="J7" s="1" t="b">
         <v>1</v>
       </c>
@@ -1537,7 +1549,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="1">
         <v>0.5</v>
